--- a/エクセル１.xlsx
+++ b/エクセル１.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyahira\Documents\study_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyahira\Documents\study_git2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ああああ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜行バス</t>
+    <rPh sb="0" eb="2">
+      <t>ヤコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -357,17 +364,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/エクセル１.xlsx
+++ b/エクセル１.xlsx
@@ -24,9 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ああああ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はしりだすよ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -357,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -370,6 +374,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/エクセル１.xlsx
+++ b/エクセル１.xlsx
@@ -24,9 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ああああ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいい</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -357,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -370,6 +374,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/エクセル１.xlsx
+++ b/エクセル１.xlsx
@@ -30,10 +30,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>夜行バス</t>
-    <rPh sb="0" eb="2">
-      <t>ヤコウ</t>
-    </rPh>
+    <t>いいいい</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -364,19 +361,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
